--- a/alex/df_repository.xlsx
+++ b/alex/df_repository.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1326">
   <si>
     <t>url</t>
   </si>
@@ -5618,6 +5618,9 @@
   </si>
   <si>
     <t>temp_range_f</t>
+  </si>
+  <si>
+    <t>2004-2020</t>
   </si>
 </sst>
 </file>
@@ -6033,18 +6036,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R166" sqref="R166"/>
+      <selection pane="bottomRight" activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="18.88671875" customWidth="1"/>
     <col min="20" max="20" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6155,7 +6160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -6436,7 +6441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -6593,7 +6598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6655,7 +6660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6824,7 +6829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -7020,7 +7025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>145</v>
       </c>
@@ -7032,7 +7037,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>156</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -7269,7 +7274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -7429,7 +7434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -7527,7 +7532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -7687,7 +7692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>236</v>
       </c>
@@ -7782,7 +7787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -7841,7 +7846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -7900,7 +7905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>266</v>
       </c>
@@ -8057,7 +8062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -8508,7 +8513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>318</v>
       </c>
@@ -8606,7 +8611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>318</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>338</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -8849,7 +8854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>351</v>
       </c>
@@ -8908,7 +8913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -8973,7 +8978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>370</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>382</v>
       </c>
@@ -9371,7 +9376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>399</v>
       </c>
@@ -9466,7 +9471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -9525,7 +9530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>413</v>
       </c>
@@ -9584,7 +9589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>418</v>
       </c>
@@ -9682,7 +9687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>427</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>433</v>
       </c>
@@ -9803,7 +9808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>440</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>446</v>
       </c>
@@ -9981,7 +9986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -10076,7 +10081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>473</v>
       </c>
@@ -10200,7 +10205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>481</v>
       </c>
@@ -10298,7 +10303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>491</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>498</v>
       </c>
@@ -10473,7 +10478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>508</v>
       </c>
@@ -10571,7 +10576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>517</v>
       </c>
@@ -10731,7 +10736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>529</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>534</v>
       </c>
@@ -10888,7 +10893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>543</v>
       </c>
@@ -11051,7 +11056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>558</v>
       </c>
@@ -11146,7 +11151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>566</v>
       </c>
@@ -11324,7 +11329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>587</v>
       </c>
@@ -11481,7 +11486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>603</v>
       </c>
@@ -11540,7 +11545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>608</v>
       </c>
@@ -11599,7 +11604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>615</v>
       </c>
@@ -11673,7 +11678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>622</v>
       </c>
@@ -11771,7 +11776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>631</v>
       </c>
@@ -11830,7 +11835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>636</v>
       </c>
@@ -11928,7 +11933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>643</v>
       </c>
@@ -11987,7 +11992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>648</v>
       </c>
@@ -12046,7 +12051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>653</v>
       </c>
@@ -12120,7 +12125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>662</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>673</v>
       </c>
@@ -12244,7 +12249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>680</v>
       </c>
@@ -12306,7 +12311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>687</v>
       </c>
@@ -12386,7 +12391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>693</v>
       </c>
@@ -12445,7 +12450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>699</v>
       </c>
@@ -12543,7 +12548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -12736,7 +12741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>726</v>
       </c>
@@ -12834,7 +12839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>736</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>742</v>
       </c>
@@ -13027,7 +13032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>747</v>
       </c>
@@ -13086,7 +13091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>754</v>
       </c>
@@ -13151,7 +13156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>761</v>
       </c>
@@ -13249,7 +13254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>772</v>
       </c>
@@ -13406,7 +13411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>785</v>
       </c>
@@ -13504,7 +13509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>792</v>
       </c>
@@ -13563,7 +13568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>798</v>
       </c>
@@ -13655,7 +13660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>805</v>
       </c>
@@ -13750,7 +13755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>811</v>
       </c>
@@ -13809,7 +13814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>816</v>
       </c>
@@ -13868,7 +13873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>822</v>
       </c>
@@ -13966,7 +13971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>830</v>
       </c>
@@ -14026,7 +14031,7 @@
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="11" t="s">
         <v>834</v>
       </c>
       <c r="B102" t="s">
@@ -14064,6 +14069,18 @@
       </c>
       <c r="N102" t="s">
         <v>391</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R102">
+        <v>2004</v>
+      </c>
+      <c r="S102">
+        <v>2020</v>
+      </c>
+      <c r="T102" t="s">
+        <v>125</v>
       </c>
       <c r="U102" t="s">
         <v>835</v>
@@ -14209,7 +14226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>849</v>
       </c>
@@ -14271,7 +14288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>856</v>
       </c>
@@ -14372,7 +14389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>863</v>
       </c>
@@ -14452,7 +14469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>873</v>
       </c>
@@ -14550,7 +14567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>880</v>
       </c>
@@ -14609,7 +14626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>888</v>
       </c>
@@ -14701,7 +14718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>898</v>
       </c>
@@ -14760,7 +14777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>903</v>
       </c>
@@ -14840,7 +14857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>910</v>
       </c>
@@ -14902,7 +14919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>917</v>
       </c>
@@ -15098,7 +15115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>938</v>
       </c>
@@ -15157,7 +15174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>943</v>
       </c>
@@ -15314,7 +15331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>957</v>
       </c>
@@ -15403,7 +15420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>966</v>
       </c>
@@ -15501,7 +15518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>975</v>
       </c>
@@ -15560,7 +15577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>979</v>
       </c>
@@ -15655,7 +15672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>985</v>
       </c>
@@ -15714,7 +15731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>991</v>
       </c>
@@ -15794,7 +15811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>1000</v>
       </c>
@@ -15892,7 +15909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1009</v>
       </c>
@@ -15972,7 +15989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1017</v>
       </c>
@@ -16070,7 +16087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1024</v>
       </c>
@@ -16153,7 +16170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1032</v>
       </c>
@@ -16212,7 +16229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>1037</v>
       </c>
@@ -16313,7 +16330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1047</v>
       </c>
@@ -16372,7 +16389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>1054</v>
       </c>
@@ -16470,7 +16487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>1062</v>
       </c>
@@ -16571,7 +16588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1072</v>
       </c>
@@ -16648,7 +16665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1080</v>
       </c>
@@ -16746,7 +16763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1086</v>
       </c>
@@ -16808,7 +16825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1093</v>
       </c>
@@ -16867,7 +16884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1100</v>
       </c>
@@ -16965,7 +16982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1110</v>
       </c>
@@ -17066,7 +17083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1123</v>
       </c>
@@ -17158,7 +17175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1130</v>
       </c>
@@ -17217,7 +17234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1134</v>
       </c>
@@ -17413,7 +17430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="R143" s="13">
         <v>2009</v>
@@ -17422,7 +17439,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1155</v>
       </c>
@@ -17502,7 +17519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1163</v>
       </c>
@@ -17561,7 +17578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1168</v>
       </c>
@@ -17659,7 +17676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1176</v>
       </c>
@@ -17718,7 +17735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1182</v>
       </c>
@@ -17816,7 +17833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1191</v>
       </c>
@@ -17875,7 +17892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>1196</v>
       </c>
@@ -18065,7 +18082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1211</v>
       </c>
@@ -18163,7 +18180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>1218</v>
       </c>
@@ -18261,7 +18278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1226</v>
       </c>
@@ -18320,7 +18337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1234</v>
       </c>
@@ -18379,7 +18396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1242</v>
       </c>
@@ -18477,7 +18494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1250</v>
       </c>
@@ -18536,7 +18553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1255</v>
       </c>
@@ -18604,7 +18621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1263</v>
       </c>
@@ -18663,7 +18680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1269</v>
       </c>
@@ -18722,7 +18739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>1276</v>
       </c>
@@ -18817,7 +18834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1284</v>
       </c>
@@ -18876,7 +18893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>1287</v>
       </c>
@@ -18953,7 +18970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="4" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" s="4" customFormat="1" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>1292</v>
       </c>
@@ -19018,7 +19035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="4" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" s="4" customFormat="1" ht="45.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>1296</v>
       </c>
@@ -19117,7 +19134,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI165"/>
+  <autoFilter ref="A1:AI165">
+    <filterColumn colId="34">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="AG161" r:id="rId1"/>
     <hyperlink ref="A162" r:id="rId2"/>
@@ -19154,9 +19177,10 @@
     <hyperlink ref="A153" r:id="rId33"/>
     <hyperlink ref="A165" r:id="rId34"/>
     <hyperlink ref="A12" r:id="rId35"/>
+    <hyperlink ref="A102" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/alex/df_repository.xlsx
+++ b/alex/df_repository.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="1325">
   <si>
     <t>url</t>
   </si>
@@ -4275,9 +4275,6 @@
     <t>Caribou</t>
   </si>
   <si>
-    <t>365000</t>
-  </si>
-  <si>
     <t>Data from: Temporally dynamic habitat suitability predicts genetic relatedness among caribou</t>
   </si>
   <si>
@@ -4464,9 +4461,6 @@
   </si>
   <si>
     <t>180 plant species</t>
-  </si>
-  <si>
-    <t>9984670</t>
   </si>
   <si>
     <t>density, species richness</t>
@@ -4861,9 +4855,6 @@
   </si>
   <si>
     <t>https://doi.org/10.5061/dryad.tc45g</t>
-  </si>
-  <si>
-    <t>ovenbird</t>
   </si>
   <si>
     <t>27500</t>
@@ -5621,6 +5612,12 @@
   </si>
   <si>
     <t>2004-2020</t>
+  </si>
+  <si>
+    <t>not given</t>
+  </si>
+  <si>
+    <t>Seiurus aurocapilla</t>
   </si>
 </sst>
 </file>
@@ -6040,10 +6037,10 @@
   <dimension ref="A1:AI165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T93" sqref="T93"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6096,7 +6093,7 @@
       <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
@@ -6106,24 +6103,24 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="S1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="T1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Y1" t="s">
@@ -6279,7 +6276,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -6309,8 +6306,17 @@
       <c r="N4" t="s">
         <v>57</v>
       </c>
+      <c r="T4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1323</v>
+      </c>
       <c r="W4" t="s">
         <v>35</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1323</v>
       </c>
       <c r="Y4" t="s">
         <v>58</v>
@@ -6441,7 +6447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -6473,10 +6479,10 @@
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="M6" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="N6" t="s">
         <v>85</v>
@@ -6599,7 +6605,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B8" t="s">
@@ -6626,6 +6632,15 @@
       <c r="N8" t="s">
         <v>103</v>
       </c>
+      <c r="T8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1323</v>
+      </c>
       <c r="Y8" t="s">
         <v>104</v>
       </c>
@@ -6660,7 +6675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -6683,23 +6698,32 @@
         <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M9" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N9" t="s">
         <v>111</v>
       </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1323</v>
+      </c>
       <c r="U9" t="s">
         <v>112</v>
       </c>
       <c r="V9" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="W9" t="s">
         <v>113</v>
       </c>
+      <c r="X9" t="s">
+        <v>1323</v>
+      </c>
       <c r="Y9" t="s">
         <v>74</v>
       </c>
@@ -6734,7 +6758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6763,10 +6787,10 @@
         <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="M10" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="N10" t="s">
         <v>122</v>
@@ -6829,7 +6853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -7037,7 +7061,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>156</v>
       </c>
@@ -7135,8 +7159,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B15" t="s">
@@ -7175,11 +7199,20 @@
       <c r="N15" t="s">
         <v>167</v>
       </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1323</v>
+      </c>
       <c r="W15" t="s">
         <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y15" t="s">
         <v>58</v>
@@ -7371,7 +7404,7 @@
         <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N18" t="s">
         <v>194</v>
@@ -7434,7 +7467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -7463,7 +7496,7 @@
         <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
@@ -7623,13 +7656,13 @@
         <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L21" t="s">
         <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="N21" t="s">
         <v>226</v>
@@ -7692,7 +7725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>236</v>
       </c>
@@ -7721,7 +7754,7 @@
         <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -7906,7 +7939,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="11" t="s">
         <v>259</v>
       </c>
       <c r="B25" t="s">
@@ -7930,6 +7963,21 @@
       <c r="N25" t="s">
         <v>260</v>
       </c>
+      <c r="S25" t="s">
+        <v>227</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1323</v>
+      </c>
       <c r="Y25" t="s">
         <v>36</v>
       </c>
@@ -7964,7 +8012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>266</v>
       </c>
@@ -8062,7 +8110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -8091,13 +8139,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L27" t="s">
         <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N27" t="s">
         <v>276</v>
@@ -8219,7 +8267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -8248,7 +8296,7 @@
         <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -8346,7 +8394,7 @@
         <v>84</v>
       </c>
       <c r="K30" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L30" t="s">
         <v>35</v>
@@ -8513,7 +8561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>318</v>
       </c>
@@ -8542,7 +8590,7 @@
         <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L32" t="s">
         <v>35</v>
@@ -8670,10 +8718,10 @@
         <v>35</v>
       </c>
       <c r="L34" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="M34" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="N34" t="s">
         <v>330</v>
@@ -8914,7 +8962,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="11" t="s">
         <v>355</v>
       </c>
       <c r="B38" t="s">
@@ -8944,6 +8992,18 @@
       <c r="N38" t="s">
         <v>319</v>
       </c>
+      <c r="T38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="W38">
+        <v>25000</v>
+      </c>
+      <c r="X38" t="s">
+        <v>125</v>
+      </c>
       <c r="Y38" t="s">
         <v>356</v>
       </c>
@@ -8978,7 +9038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -9076,7 +9136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>370</v>
       </c>
@@ -9180,7 +9240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>382</v>
       </c>
@@ -9307,7 +9367,7 @@
         <v>84</v>
       </c>
       <c r="K42" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L42" t="s">
         <v>35</v>
@@ -9376,7 +9436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>399</v>
       </c>
@@ -9411,7 +9471,7 @@
         <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N43" t="s">
         <v>400</v>
@@ -9589,7 +9649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>418</v>
       </c>
@@ -9618,13 +9678,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L46" t="s">
         <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="N46" t="s">
         <v>194</v>
@@ -9808,8 +9868,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>440</v>
       </c>
       <c r="B49" t="s">
@@ -9843,16 +9903,25 @@
         <v>35</v>
       </c>
       <c r="M49" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="N49" t="s">
         <v>330</v>
       </c>
+      <c r="O49" t="s">
+        <v>87</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V49" t="s">
+        <v>87</v>
+      </c>
       <c r="W49" t="s">
         <v>441</v>
       </c>
       <c r="X49" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y49" t="s">
         <v>88</v>
@@ -9888,7 +9957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>446</v>
       </c>
@@ -9923,7 +9992,7 @@
         <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N50" t="s">
         <v>146</v>
@@ -9986,7 +10055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -10015,7 +10084,7 @@
         <v>84</v>
       </c>
       <c r="K51" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="M51" t="s">
         <v>267</v>
@@ -10205,7 +10274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>481</v>
       </c>
@@ -10234,7 +10303,7 @@
         <v>482</v>
       </c>
       <c r="K54" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L54" t="s">
         <v>35</v>
@@ -10340,11 +10409,17 @@
       <c r="S55" t="s">
         <v>493</v>
       </c>
+      <c r="T55" t="s">
+        <v>87</v>
+      </c>
       <c r="U55" t="s">
         <v>112</v>
       </c>
       <c r="V55" t="s">
-        <v>35</v>
+        <v>1323</v>
+      </c>
+      <c r="X55" t="s">
+        <v>1274</v>
       </c>
       <c r="Y55" t="s">
         <v>104</v>
@@ -10380,7 +10455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>498</v>
       </c>
@@ -10415,7 +10490,7 @@
         <v>35</v>
       </c>
       <c r="M56" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N56" t="s">
         <v>499</v>
@@ -10478,7 +10553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>508</v>
       </c>
@@ -10507,7 +10582,7 @@
         <v>66</v>
       </c>
       <c r="K57" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L57" t="s">
         <v>35</v>
@@ -10667,7 +10742,7 @@
         <v>66</v>
       </c>
       <c r="K59" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L59" t="s">
         <v>35</v>
@@ -10795,7 +10870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>534</v>
       </c>
@@ -10827,10 +10902,10 @@
         <v>134</v>
       </c>
       <c r="L61" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M61" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N61" t="s">
         <v>535</v>
@@ -10987,7 +11062,7 @@
         <v>35</v>
       </c>
       <c r="M63" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N63" t="s">
         <v>548</v>
@@ -11056,7 +11131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>558</v>
       </c>
@@ -11085,7 +11160,7 @@
         <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L64" t="s">
         <v>35</v>
@@ -11105,6 +11180,9 @@
       <c r="S64" t="s">
         <v>560</v>
       </c>
+      <c r="T64" t="s">
+        <v>125</v>
+      </c>
       <c r="U64" t="s">
         <v>44</v>
       </c>
@@ -11115,7 +11193,7 @@
         <v>561</v>
       </c>
       <c r="X64" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y64" t="s">
         <v>313</v>
@@ -11151,8 +11229,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>566</v>
       </c>
       <c r="B65" t="s">
@@ -11191,11 +11269,20 @@
       <c r="N65" t="s">
         <v>568</v>
       </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="T65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V65" t="s">
+        <v>1323</v>
+      </c>
       <c r="W65" t="s">
         <v>35</v>
       </c>
       <c r="X65" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y65" t="s">
         <v>569</v>
@@ -11423,7 +11510,7 @@
         <v>35</v>
       </c>
       <c r="M68" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N68" t="s">
         <v>594</v>
@@ -11604,8 +11691,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>615</v>
       </c>
       <c r="B71" t="s">
@@ -11636,13 +11723,25 @@
         <v>35</v>
       </c>
       <c r="M71" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N71" t="s">
         <v>346</v>
       </c>
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+      <c r="T71" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V71" t="s">
+        <v>1323</v>
+      </c>
       <c r="W71" t="s">
         <v>35</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1323</v>
       </c>
       <c r="Y71" t="s">
         <v>616</v>
@@ -11678,7 +11777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>622</v>
       </c>
@@ -11707,13 +11806,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L72" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M72" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N72" t="s">
         <v>623</v>
@@ -11835,7 +11934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>636</v>
       </c>
@@ -11870,7 +11969,7 @@
         <v>35</v>
       </c>
       <c r="M74" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N74" t="s">
         <v>637</v>
@@ -12126,7 +12225,7 @@
       </c>
     </row>
     <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="11" t="s">
         <v>662</v>
       </c>
       <c r="B78" t="s">
@@ -12311,8 +12410,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
         <v>687</v>
       </c>
       <c r="B81" t="s">
@@ -12351,11 +12450,29 @@
       <c r="N81" t="s">
         <v>688</v>
       </c>
+      <c r="O81" t="s">
+        <v>87</v>
+      </c>
+      <c r="R81">
+        <v>2011</v>
+      </c>
+      <c r="S81">
+        <v>2013</v>
+      </c>
+      <c r="T81" t="s">
+        <v>125</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1323</v>
+      </c>
       <c r="W81" t="s">
         <v>311</v>
       </c>
       <c r="X81" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y81" t="s">
         <v>126</v>
@@ -12450,7 +12567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>699</v>
       </c>
@@ -12479,7 +12596,7 @@
         <v>84</v>
       </c>
       <c r="K83" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="L83" t="s">
         <v>35</v>
@@ -12548,7 +12665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -12577,7 +12694,7 @@
         <v>707</v>
       </c>
       <c r="K84" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L84" t="s">
         <v>35</v>
@@ -12684,7 +12801,7 @@
         <v>721</v>
       </c>
       <c r="Q85" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="R85">
         <v>1995</v>
@@ -12741,7 +12858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>726</v>
       </c>
@@ -12839,7 +12956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>736</v>
       </c>
@@ -12874,7 +12991,7 @@
         <v>35</v>
       </c>
       <c r="M87" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="N87" t="s">
         <v>400</v>
@@ -12934,7 +13051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>742</v>
       </c>
@@ -12963,13 +13080,13 @@
         <v>66</v>
       </c>
       <c r="K88" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L88" t="s">
         <v>67</v>
       </c>
       <c r="M88" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N88" t="s">
         <v>743</v>
@@ -13156,7 +13273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>761</v>
       </c>
@@ -13191,7 +13308,7 @@
         <v>35</v>
       </c>
       <c r="M91" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N91" t="s">
         <v>762</v>
@@ -13411,7 +13528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>785</v>
       </c>
@@ -13446,7 +13563,7 @@
         <v>35</v>
       </c>
       <c r="M94" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N94" t="s">
         <v>268</v>
@@ -13568,7 +13685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>798</v>
       </c>
@@ -13600,7 +13717,7 @@
         <v>35</v>
       </c>
       <c r="M96" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="N96" t="s">
         <v>799</v>
@@ -13660,7 +13777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>805</v>
       </c>
@@ -13692,10 +13809,10 @@
         <v>35</v>
       </c>
       <c r="L97" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M97" t="s">
         <v>1317</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1320</v>
       </c>
       <c r="N97" t="s">
         <v>194</v>
@@ -13873,7 +13990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>822</v>
       </c>
@@ -13908,7 +14025,7 @@
         <v>67</v>
       </c>
       <c r="M100" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N100" t="s">
         <v>823</v>
@@ -14071,7 +14188,7 @@
         <v>391</v>
       </c>
       <c r="Q102" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="R102">
         <v>2004</v>
@@ -14163,7 +14280,7 @@
         <v>35</v>
       </c>
       <c r="M103" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N103" t="s">
         <v>841</v>
@@ -14288,7 +14405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>856</v>
       </c>
@@ -14389,8 +14506,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
         <v>863</v>
       </c>
       <c r="B106" t="s">
@@ -14429,6 +14546,24 @@
       <c r="N106" t="s">
         <v>841</v>
       </c>
+      <c r="O106" t="s">
+        <v>87</v>
+      </c>
+      <c r="R106">
+        <v>1998</v>
+      </c>
+      <c r="S106">
+        <v>2014</v>
+      </c>
+      <c r="T106" t="s">
+        <v>125</v>
+      </c>
+      <c r="U106">
+        <v>5</v>
+      </c>
+      <c r="V106" t="s">
+        <v>1323</v>
+      </c>
       <c r="W106" t="s">
         <v>866</v>
       </c>
@@ -14469,7 +14604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>873</v>
       </c>
@@ -14626,7 +14761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>888</v>
       </c>
@@ -14655,7 +14790,7 @@
         <v>889</v>
       </c>
       <c r="K109" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="N109" t="s">
         <v>890</v>
@@ -14777,8 +14912,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
         <v>903</v>
       </c>
       <c r="B111" t="s">
@@ -14812,16 +14947,25 @@
         <v>35</v>
       </c>
       <c r="M111" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N111" t="s">
         <v>194</v>
       </c>
+      <c r="O111" t="s">
+        <v>87</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V111" t="s">
+        <v>1323</v>
+      </c>
       <c r="W111" t="s">
         <v>905</v>
       </c>
       <c r="X111" t="s">
-        <v>35</v>
+        <v>1323</v>
       </c>
       <c r="Y111" t="s">
         <v>74</v>
@@ -14919,7 +15063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>917</v>
       </c>
@@ -15052,7 +15196,7 @@
         <v>35</v>
       </c>
       <c r="M114" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N114" t="s">
         <v>929</v>
@@ -15268,7 +15412,7 @@
         <v>67</v>
       </c>
       <c r="M117" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N117" t="s">
         <v>841</v>
@@ -15420,7 +15564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>966</v>
       </c>
@@ -15577,7 +15721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>979</v>
       </c>
@@ -15606,10 +15750,10 @@
         <v>66</v>
       </c>
       <c r="K121" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="M121" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N121" t="s">
         <v>980</v>
@@ -15731,8 +15875,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
         <v>991</v>
       </c>
       <c r="B123" t="s">
@@ -15751,7 +15895,7 @@
         <v>55</v>
       </c>
       <c r="H123" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="I123" t="s">
         <v>65</v>
@@ -15771,11 +15915,20 @@
       <c r="N123" t="s">
         <v>992</v>
       </c>
+      <c r="O123" t="s">
+        <v>87</v>
+      </c>
+      <c r="T123" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V123" t="s">
+        <v>1323</v>
+      </c>
       <c r="W123" t="s">
         <v>993</v>
       </c>
       <c r="X123" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="Y123" t="s">
         <v>138</v>
@@ -15811,7 +15964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>1000</v>
       </c>
@@ -15909,21 +16062,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
         <v>1009</v>
       </c>
       <c r="B125" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D125" t="s">
         <v>1012</v>
       </c>
-      <c r="C125" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="G125" t="s">
         <v>55</v>
@@ -15938,7 +16091,7 @@
         <v>84</v>
       </c>
       <c r="K125" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L125" t="s">
         <v>35</v>
@@ -15949,11 +16102,20 @@
       <c r="N125" t="s">
         <v>1010</v>
       </c>
-      <c r="W125" t="s">
-        <v>1011</v>
+      <c r="O125" t="s">
+        <v>87</v>
+      </c>
+      <c r="T125" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V125" t="s">
+        <v>1323</v>
+      </c>
+      <c r="W125">
+        <v>1365000</v>
       </c>
       <c r="X125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y125" t="s">
         <v>230</v>
@@ -15980,7 +16142,7 @@
         <v>41</v>
       </c>
       <c r="AG125" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AH125" t="s">
         <v>44</v>
@@ -15989,18 +16151,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B126" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D126" t="s">
         <v>1020</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1021</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>162</v>
@@ -16021,10 +16183,10 @@
         <v>35</v>
       </c>
       <c r="L126" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="M126" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N126" t="s">
         <v>194</v>
@@ -16048,7 +16210,7 @@
         <v>35</v>
       </c>
       <c r="W126" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="X126" t="s">
         <v>35</v>
@@ -16072,13 +16234,13 @@
         <v>36</v>
       </c>
       <c r="AE126" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AF126" t="s">
         <v>41</v>
       </c>
       <c r="AG126" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AH126" t="s">
         <v>44</v>
@@ -16087,18 +16249,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>1024</v>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
+        <v>1023</v>
       </c>
       <c r="B127" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D127" t="s">
         <v>1028</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1029</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>143</v>
@@ -16122,22 +16284,28 @@
         <v>68</v>
       </c>
       <c r="M127" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N127" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O127" t="s">
         <v>125</v>
       </c>
+      <c r="T127" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V127" t="s">
+        <v>1323</v>
+      </c>
       <c r="W127" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X127" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y127" t="s">
         <v>1026</v>
-      </c>
-      <c r="X127" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>1027</v>
       </c>
       <c r="Z127" t="s">
         <v>125</v>
@@ -16161,7 +16329,7 @@
         <v>41</v>
       </c>
       <c r="AG127" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AH127" t="s">
         <v>44</v>
@@ -16172,16 +16340,16 @@
     </row>
     <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B128" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D128" t="s">
         <v>1034</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1035</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>257</v>
@@ -16214,7 +16382,7 @@
         <v>36</v>
       </c>
       <c r="AE128" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AF128" t="s">
         <v>41</v>
@@ -16229,18 +16397,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B129" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D129" t="s">
         <v>1043</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1044</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>153</v>
@@ -16255,25 +16423,25 @@
         <v>65</v>
       </c>
       <c r="J129" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K129" t="s">
+        <v>35</v>
+      </c>
+      <c r="L129" t="s">
+        <v>35</v>
+      </c>
+      <c r="M129" t="s">
+        <v>35</v>
+      </c>
+      <c r="N129" t="s">
         <v>1038</v>
-      </c>
-      <c r="K129" t="s">
-        <v>35</v>
-      </c>
-      <c r="L129" t="s">
-        <v>35</v>
-      </c>
-      <c r="M129" t="s">
-        <v>35</v>
-      </c>
-      <c r="N129" t="s">
-        <v>1039</v>
       </c>
       <c r="O129" t="s">
         <v>309</v>
       </c>
       <c r="Q129" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R129">
         <v>1950</v>
@@ -16285,7 +16453,7 @@
         <v>125</v>
       </c>
       <c r="U129" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V129" t="s">
         <v>35</v>
@@ -16315,13 +16483,13 @@
         <v>36</v>
       </c>
       <c r="AE129" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AF129" t="s">
         <v>41</v>
       </c>
       <c r="AG129" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AH129" t="s">
         <v>44</v>
@@ -16332,22 +16500,22 @@
     </row>
     <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F130" t="s">
         <v>1047</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1048</v>
       </c>
       <c r="G130" t="s">
         <v>35</v>
@@ -16380,7 +16548,7 @@
         <v>41</v>
       </c>
       <c r="AG130" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AH130" t="s">
         <v>44</v>
@@ -16389,18 +16557,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B131" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D131" t="s">
         <v>1058</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1059</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>367</v>
@@ -16415,19 +16583,19 @@
         <v>65</v>
       </c>
       <c r="J131" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L131" t="s">
+        <v>35</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N131" t="s">
         <v>1055</v>
-      </c>
-      <c r="K131" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L131" t="s">
-        <v>35</v>
-      </c>
-      <c r="M131" t="s">
-        <v>1321</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1056</v>
       </c>
       <c r="Q131" t="s">
         <v>912</v>
@@ -16448,7 +16616,7 @@
         <v>35</v>
       </c>
       <c r="W131" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X131" t="s">
         <v>87</v>
@@ -16478,7 +16646,7 @@
         <v>41</v>
       </c>
       <c r="AG131" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AH131" t="s">
         <v>44</v>
@@ -16487,18 +16655,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B132" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D132" t="s">
         <v>1068</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1069</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>162</v>
@@ -16522,22 +16690,22 @@
         <v>35</v>
       </c>
       <c r="M132" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="N132" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O132" t="s">
         <v>291</v>
       </c>
       <c r="Q132" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R132" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="S132" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="T132" t="s">
         <v>125</v>
@@ -16549,7 +16717,7 @@
         <v>35</v>
       </c>
       <c r="W132" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="X132" t="s">
         <v>125</v>
@@ -16558,7 +16726,7 @@
         <v>88</v>
       </c>
       <c r="Z132" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AA132" t="s">
         <v>36</v>
@@ -16573,13 +16741,13 @@
         <v>36</v>
       </c>
       <c r="AE132" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AF132" t="s">
         <v>41</v>
       </c>
       <c r="AG132" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AH132" t="s">
         <v>44</v>
@@ -16588,21 +16756,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>1072</v>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
+        <v>1071</v>
       </c>
       <c r="B133" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="G133" t="s">
         <v>55</v>
@@ -16617,22 +16785,28 @@
         <v>84</v>
       </c>
       <c r="K133" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L133" t="s">
         <v>35</v>
       </c>
       <c r="N133" t="s">
-        <v>1073</v>
+        <v>1072</v>
+      </c>
+      <c r="T133" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V133" t="s">
+        <v>1323</v>
       </c>
       <c r="W133" t="s">
-        <v>1074</v>
+        <v>35</v>
       </c>
       <c r="X133" t="s">
         <v>87</v>
       </c>
       <c r="Y133" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Z133" t="s">
         <v>36</v>
@@ -16665,18 +16839,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B134" t="s">
         <v>1080</v>
       </c>
-      <c r="B134" t="s">
-        <v>1082</v>
-      </c>
       <c r="C134" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D134" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>591</v>
@@ -16694,7 +16868,7 @@
         <v>84</v>
       </c>
       <c r="K134" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L134" t="s">
         <v>35</v>
@@ -16703,7 +16877,7 @@
         <v>267</v>
       </c>
       <c r="N134" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Q134" t="s">
         <v>624</v>
@@ -16754,7 +16928,7 @@
         <v>41</v>
       </c>
       <c r="AG134" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AH134" t="s">
         <v>44</v>
@@ -16765,19 +16939,19 @@
     </row>
     <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B135" t="s">
         <v>1086</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="F135" t="s">
         <v>34</v>
@@ -16789,7 +16963,7 @@
         <v>56</v>
       </c>
       <c r="N135" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Y135" t="s">
         <v>36</v>
@@ -16816,7 +16990,7 @@
         <v>41</v>
       </c>
       <c r="AG135" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AH135" t="s">
         <v>44</v>
@@ -16827,19 +17001,19 @@
     </row>
     <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B136" t="s">
         <v>1093</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -16869,13 +17043,13 @@
         <v>36</v>
       </c>
       <c r="AE136" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AF136" t="s">
         <v>41</v>
       </c>
       <c r="AG136" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AH136" t="s">
         <v>53</v>
@@ -16884,21 +17058,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B137" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="G137" t="s">
         <v>55</v>
@@ -16913,16 +17087,16 @@
         <v>66</v>
       </c>
       <c r="K137" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L137" t="s">
         <v>35</v>
       </c>
       <c r="M137" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N137" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Q137" t="s">
         <v>310</v>
@@ -16937,13 +17111,13 @@
         <v>125</v>
       </c>
       <c r="U137" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="V137" t="s">
         <v>35</v>
       </c>
       <c r="W137" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="X137" t="s">
         <v>35</v>
@@ -16967,13 +17141,13 @@
         <v>36</v>
       </c>
       <c r="AE137" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AF137" t="s">
         <v>41</v>
       </c>
       <c r="AG137" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AH137" t="s">
         <v>44</v>
@@ -16982,21 +17156,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B138" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="G138" t="s">
         <v>55</v>
@@ -17011,7 +17185,7 @@
         <v>84</v>
       </c>
       <c r="K138" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L138" t="s">
         <v>35</v>
@@ -17020,13 +17194,13 @@
         <v>267</v>
       </c>
       <c r="N138" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O138" t="s">
         <v>291</v>
       </c>
       <c r="Q138" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="R138">
         <v>1960</v>
@@ -17038,22 +17212,22 @@
         <v>71</v>
       </c>
       <c r="U138" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V138" t="s">
+        <v>35</v>
+      </c>
+      <c r="W138" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X138" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y138" t="s">
         <v>1113</v>
       </c>
-      <c r="V138" t="s">
-        <v>35</v>
-      </c>
-      <c r="W138" t="s">
+      <c r="Z138" t="s">
         <v>1114</v>
-      </c>
-      <c r="X138" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>1115</v>
-      </c>
-      <c r="Z138" t="s">
-        <v>1116</v>
       </c>
       <c r="AA138" t="s">
         <v>36</v>
@@ -17068,13 +17242,13 @@
         <v>36</v>
       </c>
       <c r="AE138" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AF138" t="s">
         <v>41</v>
       </c>
       <c r="AG138" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AH138" t="s">
         <v>44</v>
@@ -17083,21 +17257,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B139" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C139" t="s">
         <v>1127</v>
       </c>
-      <c r="C139" t="s">
-        <v>1129</v>
-      </c>
       <c r="D139" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G139" t="s">
         <v>55</v>
@@ -17112,13 +17286,13 @@
         <v>329</v>
       </c>
       <c r="M139" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="N139" t="s">
         <v>823</v>
       </c>
       <c r="Q139" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="R139">
         <v>2013</v>
@@ -17154,13 +17328,13 @@
         <v>36</v>
       </c>
       <c r="AC139" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AD139" t="s">
         <v>36</v>
       </c>
       <c r="AE139" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AF139" t="s">
         <v>41</v>
@@ -17177,16 +17351,16 @@
     </row>
     <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D140" t="s">
         <v>1130</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1132</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>670</v>
@@ -17219,7 +17393,7 @@
         <v>36</v>
       </c>
       <c r="AE140" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AF140" t="s">
         <v>41</v>
@@ -17234,15 +17408,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B141" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C141" t="s">
         <v>1140</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1142</v>
       </c>
       <c r="D141" t="s">
         <v>659</v>
@@ -17260,7 +17434,7 @@
         <v>65</v>
       </c>
       <c r="J141" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="K141" t="s">
         <v>35</v>
@@ -17272,16 +17446,16 @@
         <v>67</v>
       </c>
       <c r="N141" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="Q141" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="R141" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="S141" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="T141" t="s">
         <v>125</v>
@@ -17299,7 +17473,7 @@
         <v>35</v>
       </c>
       <c r="Y141" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Z141" t="s">
         <v>36</v>
@@ -17317,13 +17491,13 @@
         <v>36</v>
       </c>
       <c r="AE141" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AF141" t="s">
         <v>41</v>
       </c>
       <c r="AG141" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AH141" t="s">
         <v>44</v>
@@ -17334,19 +17508,19 @@
     </row>
     <row r="142" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B142" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="G142" t="s">
         <v>55</v>
@@ -17361,7 +17535,7 @@
         <v>84</v>
       </c>
       <c r="K142" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="L142" t="s">
         <v>35</v>
@@ -17370,10 +17544,10 @@
         <v>267</v>
       </c>
       <c r="N142" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="Q142" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="R142">
         <v>1952</v>
@@ -17385,13 +17559,13 @@
         <v>148</v>
       </c>
       <c r="U142" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="V142" t="s">
         <v>579</v>
       </c>
       <c r="W142" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="X142" t="s">
         <v>125</v>
@@ -17409,7 +17583,7 @@
         <v>36</v>
       </c>
       <c r="AC142" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AD142" t="s">
         <v>36</v>
@@ -17421,7 +17595,7 @@
         <v>41</v>
       </c>
       <c r="AG142" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AH142" t="s">
         <v>44</v>
@@ -17439,18 +17613,18 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>1155</v>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
+        <v>1153</v>
       </c>
       <c r="B144" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C144" t="s">
         <v>1159</v>
       </c>
-      <c r="C144" t="s">
-        <v>1162</v>
-      </c>
       <c r="D144" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>405</v>
@@ -17474,13 +17648,22 @@
         <v>35</v>
       </c>
       <c r="M144" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N144" t="s">
-        <v>1156</v>
+        <v>1324</v>
+      </c>
+      <c r="O144" t="s">
+        <v>291</v>
+      </c>
+      <c r="T144" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V144" t="s">
+        <v>1323</v>
       </c>
       <c r="W144" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="X144" t="s">
         <v>125</v>
@@ -17504,13 +17687,13 @@
         <v>36</v>
       </c>
       <c r="AE144" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AF144" t="s">
         <v>41</v>
       </c>
       <c r="AG144" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AH144" t="s">
         <v>44</v>
@@ -17521,16 +17704,16 @@
     </row>
     <row r="145" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D145" t="s">
         <v>1163</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1166</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>591</v>
@@ -17563,7 +17746,7 @@
         <v>36</v>
       </c>
       <c r="AE145" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AF145" t="s">
         <v>41</v>
@@ -17578,21 +17761,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B146" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C146" t="s">
         <v>1172</v>
       </c>
-      <c r="C146" t="s">
-        <v>1175</v>
-      </c>
       <c r="D146" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="G146" t="s">
         <v>55</v>
@@ -17607,7 +17790,7 @@
         <v>84</v>
       </c>
       <c r="K146" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="L146" t="s">
         <v>35</v>
@@ -17616,10 +17799,10 @@
         <v>35</v>
       </c>
       <c r="N146" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="Q146" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="R146">
         <v>1991</v>
@@ -17628,7 +17811,7 @@
         <v>2009</v>
       </c>
       <c r="T146" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="U146" t="s">
         <v>332</v>
@@ -17678,16 +17861,16 @@
     </row>
     <row r="147" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D147" t="s">
         <v>1176</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1179</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>162</v>
@@ -17720,13 +17903,13 @@
         <v>36</v>
       </c>
       <c r="AE147" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="AF147" t="s">
         <v>41</v>
       </c>
       <c r="AG147" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AH147" t="s">
         <v>44</v>
@@ -17735,21 +17918,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B148" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C148" t="s">
         <v>1187</v>
       </c>
-      <c r="C148" t="s">
-        <v>1190</v>
-      </c>
       <c r="D148" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G148" t="s">
         <v>55</v>
@@ -17764,7 +17947,7 @@
         <v>66</v>
       </c>
       <c r="K148" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L148" t="s">
         <v>35</v>
@@ -17773,16 +17956,16 @@
         <v>267</v>
       </c>
       <c r="N148" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="Q148" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="R148" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="S148" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="T148" t="s">
         <v>291</v>
@@ -17800,7 +17983,7 @@
         <v>35</v>
       </c>
       <c r="Y148" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Z148" t="s">
         <v>36</v>
@@ -17818,7 +18001,7 @@
         <v>36</v>
       </c>
       <c r="AE148" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AF148" t="s">
         <v>41</v>
@@ -17835,16 +18018,16 @@
     </row>
     <row r="149" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B149" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C149" t="s">
         <v>1192</v>
       </c>
-      <c r="C149" t="s">
-        <v>1195</v>
-      </c>
       <c r="D149" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>79</v>
@@ -17883,7 +18066,7 @@
         <v>41</v>
       </c>
       <c r="AG149" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AH149" t="s">
         <v>44</v>
@@ -17892,21 +18075,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B150" t="s">
         <v>1196</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>1199</v>
       </c>
-      <c r="C150" t="s">
-        <v>1202</v>
-      </c>
       <c r="D150" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="G150" t="s">
         <v>55</v>
@@ -17930,16 +18113,16 @@
         <v>267</v>
       </c>
       <c r="N150" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q150" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="R150" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="S150" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="T150" t="s">
         <v>87</v>
@@ -17986,16 +18169,16 @@
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B151" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C151" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D151" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>153</v>
@@ -18022,10 +18205,10 @@
         <v>35</v>
       </c>
       <c r="N151" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Q151" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="R151">
         <v>2006</v>
@@ -18049,7 +18232,7 @@
         <v>35</v>
       </c>
       <c r="Y151" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Z151" t="s">
         <v>36</v>
@@ -18067,7 +18250,7 @@
         <v>36</v>
       </c>
       <c r="AE151" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="AF151" t="s">
         <v>41</v>
@@ -18082,18 +18265,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B152" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C152" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D152" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>162</v>
@@ -18117,13 +18300,13 @@
         <v>35</v>
       </c>
       <c r="M152" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="N152" t="s">
         <v>194</v>
       </c>
       <c r="Q152" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="R152">
         <v>2012</v>
@@ -18159,13 +18342,13 @@
         <v>36</v>
       </c>
       <c r="AC152" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="AD152" t="s">
         <v>36</v>
       </c>
       <c r="AE152" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AF152" t="s">
         <v>41</v>
@@ -18180,21 +18363,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B153" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C153" t="s">
         <v>1222</v>
       </c>
-      <c r="C153" t="s">
-        <v>1225</v>
-      </c>
       <c r="D153" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G153" t="s">
         <v>55</v>
@@ -18209,7 +18392,7 @@
         <v>66</v>
       </c>
       <c r="K153" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L153" t="s">
         <v>35</v>
@@ -18218,16 +18401,16 @@
         <v>35</v>
       </c>
       <c r="N153" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="Q153" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="R153" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="S153" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="T153" t="s">
         <v>125</v>
@@ -18257,13 +18440,13 @@
         <v>36</v>
       </c>
       <c r="AC153" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="AD153" t="s">
         <v>36</v>
       </c>
       <c r="AE153" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="AF153" t="s">
         <v>41</v>
@@ -18280,16 +18463,16 @@
     </row>
     <row r="154" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B154" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C154" t="s">
         <v>1230</v>
       </c>
-      <c r="C154" t="s">
-        <v>1233</v>
-      </c>
       <c r="D154" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>162</v>
@@ -18301,7 +18484,7 @@
         <v>56</v>
       </c>
       <c r="N154" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Y154" t="s">
         <v>36</v>
@@ -18316,19 +18499,19 @@
         <v>36</v>
       </c>
       <c r="AC154" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="AD154" t="s">
         <v>106</v>
       </c>
       <c r="AE154" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="AF154" t="s">
         <v>41</v>
       </c>
       <c r="AG154" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="AH154" t="s">
         <v>44</v>
@@ -18339,19 +18522,19 @@
     </row>
     <row r="155" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B155" t="s">
         <v>1234</v>
       </c>
-      <c r="B155" t="s">
-        <v>1237</v>
-      </c>
       <c r="C155" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D155" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="G155" t="s">
         <v>55</v>
@@ -18360,7 +18543,7 @@
         <v>56</v>
       </c>
       <c r="N155" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="Y155" t="s">
         <v>36</v>
@@ -18375,7 +18558,7 @@
         <v>36</v>
       </c>
       <c r="AC155" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="AD155" t="s">
         <v>106</v>
@@ -18387,7 +18570,7 @@
         <v>41</v>
       </c>
       <c r="AG155" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="AH155" t="s">
         <v>44</v>
@@ -18396,21 +18579,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B156" t="s">
         <v>1242</v>
       </c>
-      <c r="B156" t="s">
-        <v>1245</v>
-      </c>
       <c r="C156" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D156" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="G156" t="s">
         <v>55</v>
@@ -18434,16 +18617,16 @@
         <v>35</v>
       </c>
       <c r="N156" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="Q156" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="R156" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="S156" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="T156" t="s">
         <v>125</v>
@@ -18479,13 +18662,13 @@
         <v>36</v>
       </c>
       <c r="AE156" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AF156" t="s">
         <v>41</v>
       </c>
       <c r="AG156" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AH156" t="s">
         <v>44</v>
@@ -18496,16 +18679,16 @@
     </row>
     <row r="157" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D157" t="s">
         <v>1250</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1253</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>143</v>
@@ -18538,7 +18721,7 @@
         <v>36</v>
       </c>
       <c r="AE157" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="AF157" t="s">
         <v>41</v>
@@ -18555,19 +18738,19 @@
     </row>
     <row r="158" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B158" t="s">
         <v>1255</v>
       </c>
-      <c r="B158" t="s">
-        <v>1258</v>
-      </c>
       <c r="C158" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D158" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="G158" t="s">
         <v>55</v>
@@ -18585,7 +18768,7 @@
         <v>267</v>
       </c>
       <c r="N158" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="Y158" t="s">
         <v>36</v>
@@ -18606,13 +18789,13 @@
         <v>36</v>
       </c>
       <c r="AE158" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AF158" t="s">
         <v>41</v>
       </c>
       <c r="AG158" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="AH158" t="s">
         <v>44</v>
@@ -18623,16 +18806,16 @@
     </row>
     <row r="159" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D159" t="s">
         <v>1263</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1266</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>251</v>
@@ -18641,7 +18824,7 @@
         <v>55</v>
       </c>
       <c r="H159" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="N159" t="s">
         <v>36</v>
@@ -18671,7 +18854,7 @@
         <v>41</v>
       </c>
       <c r="AG159" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AH159" t="s">
         <v>44</v>
@@ -18682,19 +18865,19 @@
     </row>
     <row r="160" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D160" t="s">
         <v>1269</v>
       </c>
-      <c r="B160" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1272</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F160" t="s">
         <v>34</v>
@@ -18724,13 +18907,13 @@
         <v>36</v>
       </c>
       <c r="AE160" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AF160" t="s">
         <v>41</v>
       </c>
       <c r="AG160" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="AH160" t="s">
         <v>53</v>
@@ -18739,15 +18922,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>36</v>
@@ -18765,19 +18948,19 @@
         <v>65</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>267</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="R161" s="4">
         <v>1875</v>
@@ -18789,13 +18972,13 @@
         <v>125</v>
       </c>
       <c r="U161" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="V161" s="4" t="s">
         <v>579</v>
       </c>
       <c r="W161" s="4" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="X161" s="4" t="s">
         <v>125</v>
@@ -18813,19 +18996,19 @@
         <v>36</v>
       </c>
       <c r="AC161" s="4" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="AD161" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AE161" s="4" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="AF161" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AG161" s="7" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="AH161" s="4">
         <v>1</v>
@@ -18836,10 +19019,10 @@
     </row>
     <row r="162" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>36</v>
@@ -18872,7 +19055,7 @@
         <v>36</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="AD162" s="2" t="s">
         <v>560</v>
@@ -18895,13 +19078,13 @@
     </row>
     <row r="163" spans="1:35" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>36</v>
@@ -18931,7 +19114,7 @@
         <v>146</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="X163" s="4" t="s">
         <v>125</v>
@@ -18949,19 +19132,19 @@
         <v>36</v>
       </c>
       <c r="AC163" s="4" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="AD163" s="4" t="s">
         <v>912</v>
       </c>
       <c r="AE163" s="4" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="AF163" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AG163" s="4" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AH163" s="4">
         <v>1</v>
@@ -18972,13 +19155,13 @@
     </row>
     <row r="164" spans="1:35" s="4" customFormat="1" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>1295</v>
-      </c>
       <c r="C164" s="9" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>36</v>
@@ -18996,7 +19179,7 @@
         <v>65</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="O164" s="4" t="s">
         <v>291</v>
@@ -19005,7 +19188,7 @@
         <v>58</v>
       </c>
       <c r="Z164" s="4" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="AA164" s="4" t="s">
         <v>36</v>
@@ -19026,7 +19209,7 @@
         <v>41</v>
       </c>
       <c r="AG164" s="10" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="AH164" s="4">
         <v>1</v>
@@ -19035,15 +19218,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="4" customFormat="1" ht="45.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" s="4" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>1299</v>
-      </c>
       <c r="C165" s="9" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>36</v>
@@ -19064,16 +19247,16 @@
         <v>84</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L165" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M165" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="M165" s="4" t="s">
-        <v>1320</v>
-      </c>
       <c r="N165" s="4" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Q165" s="4" t="s">
         <v>269</v>
@@ -19094,7 +19277,7 @@
         <v>35</v>
       </c>
       <c r="W165" s="4" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="X165" s="4" t="s">
         <v>125</v>
@@ -19124,7 +19307,7 @@
         <v>41</v>
       </c>
       <c r="AG165" s="10" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="AH165" s="4">
         <v>1</v>
@@ -19135,10 +19318,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AI165">
-    <filterColumn colId="34">
+    <filterColumn colId="6">
       <filters>
         <filter val="yes"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="H"/>
+        <filter val="L"/>
+        <filter val="M"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="34">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -19178,9 +19373,26 @@
     <hyperlink ref="A165" r:id="rId34"/>
     <hyperlink ref="A12" r:id="rId35"/>
     <hyperlink ref="A102" r:id="rId36"/>
+    <hyperlink ref="A8" r:id="rId37"/>
+    <hyperlink ref="A4" r:id="rId38"/>
+    <hyperlink ref="A15" r:id="rId39"/>
+    <hyperlink ref="A25" r:id="rId40"/>
+    <hyperlink ref="A49" r:id="rId41"/>
+    <hyperlink ref="A38" r:id="rId42"/>
+    <hyperlink ref="A65" r:id="rId43"/>
+    <hyperlink ref="A71" r:id="rId44"/>
+    <hyperlink ref="A78" r:id="rId45"/>
+    <hyperlink ref="A81" r:id="rId46"/>
+    <hyperlink ref="A106" r:id="rId47"/>
+    <hyperlink ref="A111" r:id="rId48"/>
+    <hyperlink ref="A123" r:id="rId49"/>
+    <hyperlink ref="A125" r:id="rId50"/>
+    <hyperlink ref="A127" r:id="rId51"/>
+    <hyperlink ref="A133" r:id="rId52"/>
+    <hyperlink ref="A144" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
